--- a/BackTest/2020-01-13 BackTest LTC.xlsx
+++ b/BackTest/2020-01-13 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,11 +484,17 @@
         <v>1730.84944079</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57500</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1773.78884079</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57500</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -552,9 +564,15 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>57550</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,15 @@
         <v>1726.61811567</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +638,15 @@
         <v>1726.08521567</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +679,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +716,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +753,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +790,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +827,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +864,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +901,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +938,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +975,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1012,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1049,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1086,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1123,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1160,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1197,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1234,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1271,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1308,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1345,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1382,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1419,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1456,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1493,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1530,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1567,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1604,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1641,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1678,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1715,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1752,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1789,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1826,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1863,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1900,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1937,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1974,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,14 +2007,16 @@
         <v>3135.0263668</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1870,7 +2042,7 @@
         <v>3167.8054668</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2075,7 @@
         <v>3106.867366800001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +2141,7 @@
         <v>3129.7401668</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2174,7 @@
         <v>3154.5440668</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2207,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2240,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2273,7 @@
         <v>2970.7511668</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2306,7 @@
         <v>2875.9263668</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2339,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2372,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2405,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2438,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2471,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2504,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2537,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2570,7 @@
         <v>2743.7250668</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2603,7 @@
         <v>2573.6834668</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2636,7 @@
         <v>2573.7170668</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2669,7 @@
         <v>2573.7170668</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2702,7 @@
         <v>2557.7956668</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2735,7 @@
         <v>2644.2578668</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2768,7 @@
         <v>2644.29261918</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2801,7 @@
         <v>2644.29261918</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2834,7 @@
         <v>2635.29261918</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2867,7 @@
         <v>2639.26181918</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2900,7 @@
         <v>2639.26181918</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2933,7 @@
         <v>2639.26181918</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2966,7 @@
         <v>2649.02481918</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2999,7 @@
         <v>2755.08261918</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3032,7 @@
         <v>2754.74191918</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3065,7 @@
         <v>2749.92501918</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3098,7 @@
         <v>2749.07351918</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3131,7 @@
         <v>2858.55351918</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3164,7 @@
         <v>2858.55351918</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3197,7 @@
         <v>2868.55351918</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3230,7 @@
         <v>2899.00371918</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3263,7 @@
         <v>2879.38871918</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3329,7 @@
         <v>2761.82791918</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3362,7 @@
         <v>2760.04281918</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3395,7 @@
         <v>2794.7650414</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3428,7 @@
         <v>2898.84462836</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3461,7 @@
         <v>2846.37362836</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3494,7 @@
         <v>2938.29872836</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3527,7 @@
         <v>2994.18252836</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3560,7 @@
         <v>3039.04012836</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3593,7 @@
         <v>3039.04012836</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3626,7 @@
         <v>2918.00522836</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3659,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3692,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3725,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3758,7 @@
         <v>2909.890128359999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3791,7 @@
         <v>2939.890128359999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3824,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3857,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3890,7 @@
         <v>2936.733228359999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3923,7 @@
         <v>2874.232928359999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3956,7 @@
         <v>2863.232928359999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3989,7 @@
         <v>2863.792528359999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4022,7 @@
         <v>2846.042128359999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4055,7 @@
         <v>2850.542128359999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4088,7 @@
         <v>2856.542128359999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4121,7 @@
         <v>2856.542128359999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4154,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4187,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4220,7 @@
         <v>2974.448328359999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4253,7 @@
         <v>2974.448328359999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4286,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4319,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4352,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4385,7 @@
         <v>2969.24992836</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4418,7 @@
         <v>2969.24992836</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4451,7 @@
         <v>3039.965428359999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4484,7 @@
         <v>3041.768728359999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4517,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4550,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4583,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4616,7 @@
         <v>3039.028828359999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4649,7 @@
         <v>3034.528828359999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4682,7 @@
         <v>3032.052928359999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4715,7 @@
         <v>3032.588928359999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4748,7 @@
         <v>3009.54262836</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4781,7 @@
         <v>2879.724428359999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4814,7 @@
         <v>2874.716728359999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4847,7 @@
         <v>2885.194328359999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4880,7 @@
         <v>2918.458028359999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4913,7 @@
         <v>2892.253428359999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4946,7 @@
         <v>2992.527828359999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4979,7 @@
         <v>2992.460828359999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5012,7 @@
         <v>2992.460828359999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5045,7 @@
         <v>2981.210828359999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5078,7 @@
         <v>2981.210828359999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5111,7 @@
         <v>2972.210828359999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5236,7 +5408,7 @@
         <v>3129.969028359999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -8173,11 +8345,17 @@
         <v>1848.98159998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>55450</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8384,17 @@
         <v>1836.03949998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>55450</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8423,17 @@
         <v>1913.64999998</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>55300</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,15 +8462,17 @@
         <v>1904.85519998</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>55400</v>
       </c>
-      <c r="J239" t="n">
-        <v>55400</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,17 +8501,15 @@
         <v>1937.57469998</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>55250</v>
       </c>
-      <c r="J240" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8350,14 +8540,12 @@
         <v>2037.57469998</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>55450</v>
       </c>
-      <c r="J241" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,14 +8579,12 @@
         <v>2031.75839998</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>55600</v>
       </c>
-      <c r="J242" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8432,14 +8618,12 @@
         <v>2142.66859998</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>55500</v>
       </c>
-      <c r="J243" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8473,14 +8657,12 @@
         <v>2170.36699998</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>55600</v>
       </c>
-      <c r="J244" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,14 +8696,12 @@
         <v>2194.41529998</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>55750</v>
       </c>
-      <c r="J245" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8555,14 +8735,12 @@
         <v>2194.41529998</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>55900</v>
       </c>
-      <c r="J246" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8596,12 +8774,12 @@
         <v>2194.41529998</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>55400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>55900</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,12 +8813,12 @@
         <v>2206.83489998</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>55400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>55900</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,9 +8855,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,9 +8892,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,14 +8926,10 @@
         <v>2202.47459998</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>56000</v>
-      </c>
-      <c r="J251" t="n">
-        <v>55400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,9 +8966,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8835,9 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8874,9 +9040,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8913,9 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,9 +9114,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8991,9 +9151,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,9 +9188,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9069,9 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9108,9 +9262,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9147,9 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,9 +9336,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9225,9 +9373,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,9 +9410,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9303,9 +9447,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9342,9 +9484,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,9 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9420,9 +9558,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9459,9 +9595,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9498,9 +9632,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9537,9 +9669,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9576,9 +9706,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9615,9 +9743,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9654,9 +9780,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9693,9 +9817,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9732,9 +9854,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9771,9 +9891,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9810,9 +9928,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9849,9 +9965,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9888,9 +10002,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9927,9 +10039,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9966,9 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10005,9 +10113,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10044,9 +10150,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10083,9 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,9 +10224,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10161,9 +10261,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,9 +10298,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10239,9 +10335,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10278,9 +10372,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10317,9 +10409,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10356,9 +10446,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10395,9 +10483,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10434,9 +10520,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10473,9 +10557,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10512,9 +10594,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10551,9 +10631,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,9 +10668,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10629,9 +10705,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10668,9 +10742,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10707,9 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10746,9 +10816,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10785,9 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10824,9 +10890,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10863,9 +10927,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10902,9 +10964,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10941,9 +11001,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,9 +11038,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11019,9 +11075,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11058,9 +11112,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11097,9 +11149,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,9 +11186,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11172,1307 +11220,1459 @@
         <v>4172.797388080003</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>55400</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C314" t="n">
+        <v>56650</v>
+      </c>
+      <c r="D314" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E314" t="n">
+        <v>56650</v>
+      </c>
+      <c r="F314" t="n">
+        <v>37.7649</v>
+      </c>
+      <c r="G314" t="n">
+        <v>4135.032488080003</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C315" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D315" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E315" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F315" t="n">
+        <v>8.15084673</v>
+      </c>
+      <c r="G315" t="n">
+        <v>4126.881641350003</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C316" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D316" t="n">
+        <v>56600</v>
+      </c>
+      <c r="E316" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F316" t="n">
+        <v>43.7617</v>
+      </c>
+      <c r="G316" t="n">
+        <v>4126.881641350003</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>56650</v>
+      </c>
+      <c r="C317" t="n">
+        <v>56650</v>
+      </c>
+      <c r="D317" t="n">
+        <v>56650</v>
+      </c>
+      <c r="E317" t="n">
+        <v>56650</v>
+      </c>
+      <c r="F317" t="n">
+        <v>90.7538</v>
+      </c>
+      <c r="G317" t="n">
+        <v>4217.635441350003</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C318" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D318" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E318" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F318" t="n">
+        <v>34.6949</v>
+      </c>
+      <c r="G318" t="n">
+        <v>4252.330341350003</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C319" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D319" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E319" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.0153</v>
+      </c>
+      <c r="G319" t="n">
+        <v>4252.330341350003</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C320" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D320" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E320" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F320" t="n">
+        <v>26.3041</v>
+      </c>
+      <c r="G320" t="n">
+        <v>4252.330341350003</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C321" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D321" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E321" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F321" t="n">
+        <v>11.6012</v>
+      </c>
+      <c r="G321" t="n">
+        <v>4240.729141350003</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C322" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D322" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E322" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F322" t="n">
+        <v>79.5163</v>
+      </c>
+      <c r="G322" t="n">
+        <v>4240.729141350003</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C323" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D323" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E323" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F323" t="n">
+        <v>23.8755</v>
+      </c>
+      <c r="G323" t="n">
+        <v>4240.729141350003</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C324" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D324" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E324" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F324" t="n">
+        <v>100</v>
+      </c>
+      <c r="G324" t="n">
+        <v>4340.729141350003</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>56900</v>
+      </c>
+      <c r="C325" t="n">
+        <v>56900</v>
+      </c>
+      <c r="D325" t="n">
+        <v>56900</v>
+      </c>
+      <c r="E325" t="n">
+        <v>56900</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1.6015</v>
+      </c>
+      <c r="G325" t="n">
+        <v>4342.330641350003</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C326" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D326" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E326" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F326" t="n">
+        <v>3.0879</v>
+      </c>
+      <c r="G326" t="n">
+        <v>4345.418541350004</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>56900</v>
+      </c>
+      <c r="C327" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D327" t="n">
+        <v>56900</v>
+      </c>
+      <c r="E327" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F327" t="n">
+        <v>32.3074</v>
+      </c>
+      <c r="G327" t="n">
+        <v>4313.111141350004</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C328" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D328" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E328" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="G328" t="n">
+        <v>4312.923641350004</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C329" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D329" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E329" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.9792</v>
+      </c>
+      <c r="G329" t="n">
+        <v>4314.902841350004</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C330" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D330" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E330" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F330" t="n">
+        <v>21.9411</v>
+      </c>
+      <c r="G330" t="n">
+        <v>4292.961741350004</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C331" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D331" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E331" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="G331" t="n">
+        <v>4292.961741350004</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C332" t="n">
+        <v>57100</v>
+      </c>
+      <c r="D332" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E332" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F332" t="n">
+        <v>21.9633</v>
+      </c>
+      <c r="G332" t="n">
+        <v>4314.925041350004</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C333" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E333" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F333" t="n">
+        <v>100</v>
+      </c>
+      <c r="G333" t="n">
+        <v>4214.925041350004</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C334" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D334" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E334" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F334" t="n">
+        <v>14.0459</v>
+      </c>
+      <c r="G334" t="n">
+        <v>4228.970941350004</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>57100</v>
+      </c>
+      <c r="C335" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D335" t="n">
+        <v>57350</v>
+      </c>
+      <c r="E335" t="n">
+        <v>57100</v>
+      </c>
+      <c r="F335" t="n">
+        <v>8.838200000000001</v>
+      </c>
+      <c r="G335" t="n">
+        <v>4228.970941350004</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C336" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D336" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E336" t="n">
+        <v>57300</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.7481</v>
+      </c>
+      <c r="G336" t="n">
+        <v>4228.970941350004</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C337" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D337" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E337" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F337" t="n">
+        <v>15.5978</v>
+      </c>
+      <c r="G337" t="n">
+        <v>4213.373141350005</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C338" t="n">
+        <v>57100</v>
+      </c>
+      <c r="D338" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E338" t="n">
+        <v>57100</v>
+      </c>
+      <c r="F338" t="n">
+        <v>8.873200000000001</v>
+      </c>
+      <c r="G338" t="n">
+        <v>4222.246341350005</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C339" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D339" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E339" t="n">
+        <v>57200</v>
+      </c>
+      <c r="F339" t="n">
+        <v>47.6073</v>
+      </c>
+      <c r="G339" t="n">
+        <v>4269.853641350004</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>57350</v>
+      </c>
+      <c r="C340" t="n">
+        <v>57200</v>
+      </c>
+      <c r="D340" t="n">
+        <v>57350</v>
+      </c>
+      <c r="E340" t="n">
+        <v>57200</v>
+      </c>
+      <c r="F340" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="G340" t="n">
+        <v>4260.214641350004</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>57350</v>
+      </c>
+      <c r="C341" t="n">
+        <v>57350</v>
+      </c>
+      <c r="D341" t="n">
+        <v>57350</v>
+      </c>
+      <c r="E341" t="n">
+        <v>57350</v>
+      </c>
+      <c r="F341" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="G341" t="n">
+        <v>4270.504641350004</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>57250</v>
+      </c>
+      <c r="C342" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D342" t="n">
+        <v>57250</v>
+      </c>
+      <c r="E342" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="G342" t="n">
+        <v>4270.484741350004</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>57500</v>
+      </c>
+      <c r="C343" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D343" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E343" t="n">
+        <v>57350</v>
+      </c>
+      <c r="F343" t="n">
+        <v>57.323</v>
+      </c>
+      <c r="G343" t="n">
+        <v>4327.807741350004</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>57450</v>
+      </c>
+      <c r="C344" t="n">
+        <v>57450</v>
+      </c>
+      <c r="D344" t="n">
+        <v>57450</v>
+      </c>
+      <c r="E344" t="n">
+        <v>57450</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.5688</v>
+      </c>
+      <c r="G344" t="n">
+        <v>4327.238941350004</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>57500</v>
+      </c>
+      <c r="C345" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D345" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E345" t="n">
+        <v>57500</v>
+      </c>
+      <c r="F345" t="n">
+        <v>24.3457</v>
+      </c>
+      <c r="G345" t="n">
+        <v>4351.584641350004</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C346" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D346" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E346" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F346" t="n">
+        <v>15.0451</v>
+      </c>
+      <c r="G346" t="n">
+        <v>4336.539541350004</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>57350</v>
+      </c>
+      <c r="C347" t="n">
+        <v>57350</v>
+      </c>
+      <c r="D347" t="n">
+        <v>57350</v>
+      </c>
+      <c r="E347" t="n">
+        <v>57350</v>
+      </c>
+      <c r="F347" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="G347" t="n">
+        <v>4347.789541350004</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>57350</v>
+      </c>
+      <c r="C348" t="n">
+        <v>57350</v>
+      </c>
+      <c r="D348" t="n">
+        <v>57350</v>
+      </c>
+      <c r="E348" t="n">
+        <v>57350</v>
+      </c>
+      <c r="F348" t="n">
+        <v>46.6203</v>
+      </c>
+      <c r="G348" t="n">
+        <v>4347.789541350004</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C349" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D349" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E349" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F349" t="n">
+        <v>8.190899999999999</v>
+      </c>
+      <c r="G349" t="n">
+        <v>4339.598641350004</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>57250</v>
+      </c>
+      <c r="C350" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D350" t="n">
+        <v>57250</v>
+      </c>
+      <c r="E350" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F350" t="n">
+        <v>9.836</v>
+      </c>
+      <c r="G350" t="n">
+        <v>4339.598641350004</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>57350</v>
+      </c>
+      <c r="C351" t="n">
+        <v>57350</v>
+      </c>
+      <c r="D351" t="n">
+        <v>57550</v>
+      </c>
+      <c r="E351" t="n">
+        <v>57350</v>
+      </c>
+      <c r="F351" t="n">
+        <v>113.12439774</v>
+      </c>
+      <c r="G351" t="n">
+        <v>4452.723039090004</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>57450</v>
+      </c>
+      <c r="C352" t="n">
+        <v>57450</v>
+      </c>
+      <c r="D352" t="n">
+        <v>57450</v>
+      </c>
+      <c r="E352" t="n">
+        <v>57450</v>
+      </c>
+      <c r="F352" t="n">
+        <v>1.65549173</v>
+      </c>
+      <c r="G352" t="n">
+        <v>4454.378530820004</v>
+      </c>
+      <c r="H352" t="n">
+        <v>2</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L313" t="n">
-        <v>1.019368231046931</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>56700</v>
-      </c>
-      <c r="C314" t="n">
-        <v>56650</v>
-      </c>
-      <c r="D314" t="n">
-        <v>56700</v>
-      </c>
-      <c r="E314" t="n">
-        <v>56650</v>
-      </c>
-      <c r="F314" t="n">
-        <v>37.7649</v>
-      </c>
-      <c r="G314" t="n">
-        <v>4135.032488080003</v>
-      </c>
-      <c r="H314" t="n">
-        <v>3</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>56700</v>
-      </c>
-      <c r="C315" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D315" t="n">
-        <v>56700</v>
-      </c>
-      <c r="E315" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F315" t="n">
-        <v>8.15084673</v>
-      </c>
-      <c r="G315" t="n">
-        <v>4126.881641350003</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>56600</v>
-      </c>
-      <c r="C316" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D316" t="n">
-        <v>56600</v>
-      </c>
-      <c r="E316" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F316" t="n">
-        <v>43.7617</v>
-      </c>
-      <c r="G316" t="n">
-        <v>4126.881641350003</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>56650</v>
-      </c>
-      <c r="C317" t="n">
-        <v>56650</v>
-      </c>
-      <c r="D317" t="n">
-        <v>56650</v>
-      </c>
-      <c r="E317" t="n">
-        <v>56650</v>
-      </c>
-      <c r="F317" t="n">
-        <v>90.7538</v>
-      </c>
-      <c r="G317" t="n">
-        <v>4217.635441350003</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C318" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D318" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E318" t="n">
-        <v>56750</v>
-      </c>
-      <c r="F318" t="n">
-        <v>34.6949</v>
-      </c>
-      <c r="G318" t="n">
-        <v>4252.330341350003</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>56850</v>
-      </c>
-      <c r="C319" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D319" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E319" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F319" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="G319" t="n">
-        <v>4252.330341350003</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>56850</v>
-      </c>
-      <c r="C320" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D320" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E320" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F320" t="n">
-        <v>26.3041</v>
-      </c>
-      <c r="G320" t="n">
-        <v>4252.330341350003</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>56850</v>
-      </c>
-      <c r="C321" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D321" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E321" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F321" t="n">
-        <v>11.6012</v>
-      </c>
-      <c r="G321" t="n">
-        <v>4240.729141350003</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C322" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D322" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E322" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F322" t="n">
-        <v>79.5163</v>
-      </c>
-      <c r="G322" t="n">
-        <v>4240.729141350003</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C323" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D323" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E323" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F323" t="n">
-        <v>23.8755</v>
-      </c>
-      <c r="G323" t="n">
-        <v>4240.729141350003</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>56850</v>
-      </c>
-      <c r="C324" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D324" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E324" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F324" t="n">
-        <v>100</v>
-      </c>
-      <c r="G324" t="n">
-        <v>4340.729141350003</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>56900</v>
-      </c>
-      <c r="C325" t="n">
-        <v>56900</v>
-      </c>
-      <c r="D325" t="n">
-        <v>56900</v>
-      </c>
-      <c r="E325" t="n">
-        <v>56900</v>
-      </c>
-      <c r="F325" t="n">
-        <v>1.6015</v>
-      </c>
-      <c r="G325" t="n">
-        <v>4342.330641350003</v>
-      </c>
-      <c r="H325" t="n">
-        <v>3</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C326" t="n">
-        <v>57000</v>
-      </c>
-      <c r="D326" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E326" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F326" t="n">
-        <v>3.0879</v>
-      </c>
-      <c r="G326" t="n">
-        <v>4345.418541350004</v>
-      </c>
-      <c r="H326" t="n">
-        <v>3</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>56900</v>
-      </c>
-      <c r="C327" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D327" t="n">
-        <v>56900</v>
-      </c>
-      <c r="E327" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F327" t="n">
-        <v>32.3074</v>
-      </c>
-      <c r="G327" t="n">
-        <v>4313.111141350004</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C328" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D328" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E328" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F328" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="G328" t="n">
-        <v>4312.923641350004</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C329" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D329" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E329" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F329" t="n">
-        <v>1.9792</v>
-      </c>
-      <c r="G329" t="n">
-        <v>4314.902841350004</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C330" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D330" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E330" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F330" t="n">
-        <v>21.9411</v>
-      </c>
-      <c r="G330" t="n">
-        <v>4292.961741350004</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C331" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D331" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E331" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F331" t="n">
-        <v>0.2016</v>
-      </c>
-      <c r="G331" t="n">
-        <v>4292.961741350004</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>56850</v>
-      </c>
-      <c r="C332" t="n">
-        <v>57100</v>
-      </c>
-      <c r="D332" t="n">
-        <v>57100</v>
-      </c>
-      <c r="E332" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F332" t="n">
-        <v>21.9633</v>
-      </c>
-      <c r="G332" t="n">
-        <v>4314.925041350004</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C333" t="n">
-        <v>57000</v>
-      </c>
-      <c r="D333" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E333" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F333" t="n">
-        <v>100</v>
-      </c>
-      <c r="G333" t="n">
-        <v>4214.925041350004</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C334" t="n">
-        <v>57300</v>
-      </c>
-      <c r="D334" t="n">
-        <v>57300</v>
-      </c>
-      <c r="E334" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F334" t="n">
-        <v>14.0459</v>
-      </c>
-      <c r="G334" t="n">
-        <v>4228.970941350004</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>57100</v>
-      </c>
-      <c r="C335" t="n">
-        <v>57300</v>
-      </c>
-      <c r="D335" t="n">
-        <v>57350</v>
-      </c>
-      <c r="E335" t="n">
-        <v>57100</v>
-      </c>
-      <c r="F335" t="n">
-        <v>8.838200000000001</v>
-      </c>
-      <c r="G335" t="n">
-        <v>4228.970941350004</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>57300</v>
-      </c>
-      <c r="C336" t="n">
-        <v>57300</v>
-      </c>
-      <c r="D336" t="n">
-        <v>57300</v>
-      </c>
-      <c r="E336" t="n">
-        <v>57300</v>
-      </c>
-      <c r="F336" t="n">
-        <v>0.7481</v>
-      </c>
-      <c r="G336" t="n">
-        <v>4228.970941350004</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C337" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D337" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E337" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F337" t="n">
-        <v>15.5978</v>
-      </c>
-      <c r="G337" t="n">
-        <v>4213.373141350005</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>57300</v>
-      </c>
-      <c r="C338" t="n">
-        <v>57100</v>
-      </c>
-      <c r="D338" t="n">
-        <v>57300</v>
-      </c>
-      <c r="E338" t="n">
-        <v>57100</v>
-      </c>
-      <c r="F338" t="n">
-        <v>8.873200000000001</v>
-      </c>
-      <c r="G338" t="n">
-        <v>4222.246341350005</v>
-      </c>
-      <c r="H338" t="n">
-        <v>3</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>57200</v>
-      </c>
-      <c r="C339" t="n">
-        <v>57300</v>
-      </c>
-      <c r="D339" t="n">
-        <v>57500</v>
-      </c>
-      <c r="E339" t="n">
-        <v>57200</v>
-      </c>
-      <c r="F339" t="n">
-        <v>47.6073</v>
-      </c>
-      <c r="G339" t="n">
-        <v>4269.853641350004</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>57350</v>
-      </c>
-      <c r="C340" t="n">
-        <v>57200</v>
-      </c>
-      <c r="D340" t="n">
-        <v>57350</v>
-      </c>
-      <c r="E340" t="n">
-        <v>57200</v>
-      </c>
-      <c r="F340" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="G340" t="n">
-        <v>4260.214641350004</v>
-      </c>
-      <c r="H340" t="n">
-        <v>3</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>57350</v>
-      </c>
-      <c r="C341" t="n">
-        <v>57350</v>
-      </c>
-      <c r="D341" t="n">
-        <v>57350</v>
-      </c>
-      <c r="E341" t="n">
-        <v>57350</v>
-      </c>
-      <c r="F341" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="G341" t="n">
-        <v>4270.504641350004</v>
-      </c>
-      <c r="H341" t="n">
-        <v>3</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>57250</v>
-      </c>
-      <c r="C342" t="n">
-        <v>57250</v>
-      </c>
-      <c r="D342" t="n">
-        <v>57250</v>
-      </c>
-      <c r="E342" t="n">
-        <v>57250</v>
-      </c>
-      <c r="F342" t="n">
-        <v>0.0199</v>
-      </c>
-      <c r="G342" t="n">
-        <v>4270.484741350004</v>
-      </c>
-      <c r="H342" t="n">
-        <v>3</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>57500</v>
-      </c>
-      <c r="C343" t="n">
-        <v>57500</v>
-      </c>
-      <c r="D343" t="n">
-        <v>57500</v>
-      </c>
-      <c r="E343" t="n">
-        <v>57350</v>
-      </c>
-      <c r="F343" t="n">
-        <v>57.323</v>
-      </c>
-      <c r="G343" t="n">
-        <v>4327.807741350004</v>
-      </c>
-      <c r="H343" t="n">
-        <v>3</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>57450</v>
-      </c>
-      <c r="C344" t="n">
-        <v>57450</v>
-      </c>
-      <c r="D344" t="n">
-        <v>57450</v>
-      </c>
-      <c r="E344" t="n">
-        <v>57450</v>
-      </c>
-      <c r="F344" t="n">
-        <v>0.5688</v>
-      </c>
-      <c r="G344" t="n">
-        <v>4327.238941350004</v>
-      </c>
-      <c r="H344" t="n">
-        <v>3</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>57500</v>
-      </c>
-      <c r="C345" t="n">
-        <v>57500</v>
-      </c>
-      <c r="D345" t="n">
-        <v>57500</v>
-      </c>
-      <c r="E345" t="n">
-        <v>57500</v>
-      </c>
-      <c r="F345" t="n">
-        <v>24.3457</v>
-      </c>
-      <c r="G345" t="n">
-        <v>4351.584641350004</v>
-      </c>
-      <c r="H345" t="n">
-        <v>3</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>57300</v>
-      </c>
-      <c r="C346" t="n">
-        <v>57250</v>
-      </c>
-      <c r="D346" t="n">
-        <v>57300</v>
-      </c>
-      <c r="E346" t="n">
-        <v>57250</v>
-      </c>
-      <c r="F346" t="n">
-        <v>15.0451</v>
-      </c>
-      <c r="G346" t="n">
-        <v>4336.539541350004</v>
-      </c>
-      <c r="H346" t="n">
-        <v>3</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>57350</v>
-      </c>
-      <c r="C347" t="n">
-        <v>57350</v>
-      </c>
-      <c r="D347" t="n">
-        <v>57350</v>
-      </c>
-      <c r="E347" t="n">
-        <v>57350</v>
-      </c>
-      <c r="F347" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="G347" t="n">
-        <v>4347.789541350004</v>
-      </c>
-      <c r="H347" t="n">
-        <v>3</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>57350</v>
-      </c>
-      <c r="C348" t="n">
-        <v>57350</v>
-      </c>
-      <c r="D348" t="n">
-        <v>57350</v>
-      </c>
-      <c r="E348" t="n">
-        <v>57350</v>
-      </c>
-      <c r="F348" t="n">
-        <v>46.6203</v>
-      </c>
-      <c r="G348" t="n">
-        <v>4347.789541350004</v>
-      </c>
-      <c r="H348" t="n">
-        <v>3</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>57300</v>
-      </c>
-      <c r="C349" t="n">
-        <v>57250</v>
-      </c>
-      <c r="D349" t="n">
-        <v>57300</v>
-      </c>
-      <c r="E349" t="n">
-        <v>57250</v>
-      </c>
-      <c r="F349" t="n">
-        <v>8.190899999999999</v>
-      </c>
-      <c r="G349" t="n">
-        <v>4339.598641350004</v>
-      </c>
-      <c r="H349" t="n">
-        <v>3</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>57250</v>
-      </c>
-      <c r="C350" t="n">
-        <v>57250</v>
-      </c>
-      <c r="D350" t="n">
-        <v>57250</v>
-      </c>
-      <c r="E350" t="n">
-        <v>57250</v>
-      </c>
-      <c r="F350" t="n">
-        <v>9.836</v>
-      </c>
-      <c r="G350" t="n">
-        <v>4339.598641350004</v>
-      </c>
-      <c r="H350" t="n">
-        <v>3</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>57350</v>
-      </c>
-      <c r="C351" t="n">
-        <v>57350</v>
-      </c>
-      <c r="D351" t="n">
-        <v>57550</v>
-      </c>
-      <c r="E351" t="n">
-        <v>57350</v>
-      </c>
-      <c r="F351" t="n">
-        <v>113.12439774</v>
-      </c>
-      <c r="G351" t="n">
-        <v>4452.723039090004</v>
-      </c>
-      <c r="H351" t="n">
-        <v>3</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>57450</v>
-      </c>
-      <c r="C352" t="n">
-        <v>57450</v>
-      </c>
-      <c r="D352" t="n">
-        <v>57450</v>
-      </c>
-      <c r="E352" t="n">
-        <v>57450</v>
-      </c>
-      <c r="F352" t="n">
-        <v>1.65549173</v>
-      </c>
-      <c r="G352" t="n">
-        <v>4454.378530820004</v>
-      </c>
-      <c r="H352" t="n">
-        <v>3</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
@@ -12498,7 +12698,7 @@
         <v>4403.778730820004</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12531,7 +12731,7 @@
         <v>4445.067222530004</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12564,7 +12764,7 @@
         <v>4425.475922530004</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12597,7 +12797,7 @@
         <v>4293.869822530004</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12630,7 +12830,7 @@
         <v>4309.728922530004</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12663,7 +12863,7 @@
         <v>4309.728922530004</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12696,7 +12896,7 @@
         <v>4264.227622530004</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12729,7 +12929,7 @@
         <v>4279.977622530004</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12762,7 +12962,7 @@
         <v>4404.979322530004</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12795,7 +12995,7 @@
         <v>4428.659322530004</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12828,7 +13028,7 @@
         <v>4449.285222530004</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12861,7 +13061,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12894,7 +13094,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12927,7 +13127,7 @@
         <v>4073.341322530004</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12960,7 +13160,7 @@
         <v>4080.876318200004</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12993,7 +13193,7 @@
         <v>4073.898918200004</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13026,7 +13226,7 @@
         <v>3990.193018200004</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13059,7 +13259,7 @@
         <v>3990.023018200004</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13092,7 +13292,7 @@
         <v>3941.043018200004</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13125,7 +13325,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13158,7 +13358,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13191,7 +13391,7 @@
         <v>3941.752918200004</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13224,7 +13424,7 @@
         <v>3941.843818200004</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13257,7 +13457,7 @@
         <v>3864.170218200004</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13290,7 +13490,7 @@
         <v>3843.401518200004</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13323,7 +13523,7 @@
         <v>3876.070518200004</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13356,7 +13556,7 @@
         <v>3851.871618200004</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13389,7 +13589,7 @@
         <v>3895.893318200004</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13422,7 +13622,7 @@
         <v>3895.712903350004</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13455,7 +13655,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13488,7 +13688,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13521,7 +13721,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13554,7 +13754,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13587,7 +13787,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13620,7 +13820,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13653,7 +13853,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13686,7 +13886,7 @@
         <v>3812.155603350004</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13719,7 +13919,7 @@
         <v>3827.905603350004</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13752,7 +13952,7 @@
         <v>3821.572103350004</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13785,7 +13985,7 @@
         <v>3822.293103350004</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13818,7 +14018,7 @@
         <v>3843.297603350004</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13851,7 +14051,7 @@
         <v>3803.967703350003</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13884,7 +14084,7 @@
         <v>3797.645403350004</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13917,7 +14117,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13950,7 +14150,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13983,7 +14183,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14016,7 +14216,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14049,7 +14249,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14082,7 +14282,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14115,7 +14315,7 @@
         <v>3769.839703350004</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14148,7 +14348,7 @@
         <v>3794.864603350004</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14181,7 +14381,7 @@
         <v>3794.864603350004</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14214,7 +14414,7 @@
         <v>3794.964603350003</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14247,7 +14447,7 @@
         <v>3787.227603350003</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14280,7 +14480,7 @@
         <v>3777.758603350003</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14313,7 +14513,7 @@
         <v>3773.445603350003</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14346,7 +14546,7 @@
         <v>3773.470803350003</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14379,7 +14579,7 @@
         <v>3771.616203350003</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14412,7 +14612,7 @@
         <v>3781.085203350003</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14445,7 +14645,7 @@
         <v>3779.601903350003</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14478,7 +14678,7 @@
         <v>3780.564903350004</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14511,7 +14711,7 @@
         <v>3755.256303350004</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14544,7 +14744,7 @@
         <v>3800.131303350004</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14577,7 +14777,7 @@
         <v>3859.342203350004</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14610,7 +14810,7 @@
         <v>3853.154203350004</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14643,7 +14843,7 @@
         <v>3853.311203350004</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14676,7 +14876,7 @@
         <v>3794.867303350004</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14709,7 +14909,7 @@
         <v>3810.935303350004</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14742,7 +14942,7 @@
         <v>3812.479103350004</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14775,7 +14975,7 @@
         <v>3818.412303350004</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14808,7 +15008,7 @@
         <v>3818.412303350004</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14841,7 +15041,7 @@
         <v>3819.245603350003</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14874,7 +15074,7 @@
         <v>3827.469903350003</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14907,7 +15107,7 @@
         <v>3825.736803350003</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14940,7 +15140,7 @@
         <v>3829.937103350003</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14973,7 +15173,7 @@
         <v>3829.937103350003</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15006,7 +15206,7 @@
         <v>3829.919651350003</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15039,7 +15239,7 @@
         <v>3770.630551350003</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15072,7 +15272,7 @@
         <v>3775.153451350003</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15105,7 +15305,7 @@
         <v>3798.078851350003</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15138,7 +15338,7 @@
         <v>3798.078851350003</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15171,7 +15371,7 @@
         <v>3766.068951350003</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15204,7 +15404,7 @@
         <v>3788.472051350003</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15237,7 +15437,7 @@
         <v>3788.454568840004</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15270,7 +15470,7 @@
         <v>3780.050568840004</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15303,7 +15503,7 @@
         <v>3815.484468840004</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15336,7 +15536,7 @@
         <v>3810.104868840003</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15369,7 +15569,7 @@
         <v>3803.681968840003</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15402,7 +15602,7 @@
         <v>3952.374468840003</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15435,7 +15635,7 @@
         <v>3952.374468840003</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15468,7 +15668,7 @@
         <v>3962.374468840003</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15501,7 +15701,7 @@
         <v>3953.374468840003</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15534,7 +15734,7 @@
         <v>3953.474468840003</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15567,7 +15767,7 @@
         <v>3946.755568840003</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15600,7 +15800,7 @@
         <v>3827.212868840003</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15633,7 +15833,7 @@
         <v>3827.212868840003</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15666,7 +15866,7 @@
         <v>3827.212868840003</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15699,7 +15899,7 @@
         <v>3753.850368840003</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15732,7 +15932,7 @@
         <v>3739.391868840003</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15765,7 +15965,7 @@
         <v>3744.091868840003</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15798,7 +15998,7 @@
         <v>3744.016768840003</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15831,7 +16031,7 @@
         <v>3754.016768840003</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15864,7 +16064,7 @@
         <v>3754.016768840003</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16359,7 +16559,7 @@
         <v>3715.060568840003</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16392,7 +16592,7 @@
         <v>3715.060568840003</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16425,7 +16625,7 @@
         <v>3686.526475070003</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16458,7 +16658,7 @@
         <v>3533.283275070004</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16491,7 +16691,7 @@
         <v>3550.594175070004</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16524,7 +16724,7 @@
         <v>3560.970275070003</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16557,7 +16757,7 @@
         <v>3492.599366690004</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16590,7 +16790,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16623,7 +16823,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16656,7 +16856,7 @@
         <v>3358.653661250004</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16689,7 +16889,7 @@
         <v>3357.818661250004</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16722,7 +16922,7 @@
         <v>3336.662261250004</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16755,7 +16955,7 @@
         <v>3336.673961250004</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16788,7 +16988,7 @@
         <v>3335.673961250004</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16821,7 +17021,7 @@
         <v>3344.024461250004</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16854,7 +17054,7 @@
         <v>3533.647361250004</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16887,7 +17087,7 @@
         <v>3533.390661250004</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16920,7 +17120,7 @@
         <v>3529.390661250004</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16953,7 +17153,7 @@
         <v>3529.390661250004</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16986,7 +17186,7 @@
         <v>3529.390661250004</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17019,7 +17219,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17052,7 +17252,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17085,7 +17285,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17118,7 +17318,7 @@
         <v>3534.006161250004</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17151,7 +17351,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17184,7 +17384,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17217,7 +17417,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17250,7 +17450,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17283,7 +17483,7 @@
         <v>3430.105361250003</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17316,7 +17516,7 @@
         <v>3565.453461250003</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17349,7 +17549,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17382,7 +17582,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17415,7 +17615,7 @@
         <v>3690.139461250003</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17448,7 +17648,7 @@
         <v>3637.574561250003</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17547,7 +17747,7 @@
         <v>3555.693761250003</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17580,7 +17780,7 @@
         <v>3555.693761250003</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17613,7 +17813,7 @@
         <v>3570.193761250003</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17646,7 +17846,7 @@
         <v>3570.193761250003</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17679,7 +17879,7 @@
         <v>3570.193761250003</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17712,7 +17912,7 @@
         <v>3633.084561250003</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17745,7 +17945,7 @@
         <v>3633.084561250003</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17778,7 +17978,7 @@
         <v>3629.284961250004</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17811,7 +18011,7 @@
         <v>3646.592161250004</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17844,7 +18044,7 @@
         <v>3645.407061250004</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17877,7 +18077,7 @@
         <v>3581.878861250003</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17910,7 +18110,7 @@
         <v>3544.906861250003</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17943,7 +18143,7 @@
         <v>3563.499361250003</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17976,7 +18176,7 @@
         <v>3563.499361250003</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18009,7 +18209,7 @@
         <v>3563.499361250003</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18042,7 +18242,7 @@
         <v>3488.762761250003</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18075,7 +18275,7 @@
         <v>3583.509161250003</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18108,7 +18308,7 @@
         <v>3605.357261250003</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18141,7 +18341,7 @@
         <v>3607.589861250003</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18174,7 +18374,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18207,7 +18407,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18240,7 +18440,7 @@
         <v>3600.172661250003</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18273,7 +18473,7 @@
         <v>3659.972661250004</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18306,7 +18506,7 @@
         <v>3754.905961250004</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18339,7 +18539,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18372,7 +18572,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18405,7 +18605,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18438,7 +18638,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18471,7 +18671,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18504,7 +18704,7 @@
         <v>3783.731961250004</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18537,7 +18737,7 @@
         <v>3771.399461250004</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18570,7 +18770,7 @@
         <v>3871.750961250004</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18603,7 +18803,7 @@
         <v>3771.750961250004</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18636,7 +18836,7 @@
         <v>3730.462461250004</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18669,7 +18869,7 @@
         <v>3734.318961250004</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18702,7 +18902,7 @@
         <v>3755.554361250004</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18735,7 +18935,7 @@
         <v>3752.457161250004</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18768,7 +18968,7 @@
         <v>3743.665661250004</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18801,7 +19001,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18834,7 +19034,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18867,7 +19067,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18900,7 +19100,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18933,7 +19133,7 @@
         <v>3723.486661250004</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18966,7 +19166,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18999,7 +19199,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19032,7 +19232,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19065,7 +19265,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19098,7 +19298,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19131,7 +19331,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19164,7 +19364,7 @@
         <v>3599.473261250004</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19197,7 +19397,7 @@
         <v>3593.184761250004</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19230,7 +19430,7 @@
         <v>3644.730861250004</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19263,7 +19463,7 @@
         <v>3644.739861250004</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19296,7 +19496,7 @@
         <v>3604.241461250004</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19329,7 +19529,7 @@
         <v>3572.717761250004</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19362,7 +19562,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19395,7 +19595,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19428,7 +19628,7 @@
         <v>3569.791061250004</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19461,7 +19661,7 @@
         <v>3351.826761250004</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19494,7 +19694,7 @@
         <v>3361.835661250003</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19527,7 +19727,7 @@
         <v>3361.835661250003</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19560,7 +19760,7 @@
         <v>3360.259761250004</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19593,7 +19793,7 @@
         <v>3255.508961250004</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19626,7 +19826,7 @@
         <v>3254.919261250004</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19659,7 +19859,7 @@
         <v>3376.791561250004</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19692,7 +19892,7 @@
         <v>3376.391561250004</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19725,7 +19925,7 @@
         <v>3407.223161250004</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19758,7 +19958,7 @@
         <v>3407.273683890004</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19791,7 +19991,7 @@
         <v>3407.760983890003</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19824,7 +20024,7 @@
         <v>3407.745283890004</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19857,7 +20057,7 @@
         <v>3407.670283890004</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19890,7 +20090,7 @@
         <v>3407.670283890004</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19923,7 +20123,7 @@
         <v>3406.670283890004</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19956,7 +20156,7 @@
         <v>3406.670283890004</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19989,7 +20189,7 @@
         <v>3375.974783890004</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20022,7 +20222,7 @@
         <v>3324.782683890004</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20055,7 +20255,7 @@
         <v>3324.782683890004</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20088,7 +20288,7 @@
         <v>3227.101483890004</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20121,7 +20321,7 @@
         <v>3252.503183890004</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20154,7 +20354,7 @@
         <v>3250.436083890003</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20187,7 +20387,7 @@
         <v>2991.419683890003</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20220,7 +20420,7 @@
         <v>3024.861683890003</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20253,7 +20453,7 @@
         <v>3024.861683890003</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20286,7 +20486,7 @@
         <v>2957.457283890004</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20319,7 +20519,7 @@
         <v>2947.488883890003</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20352,7 +20552,7 @@
         <v>2947.694083890003</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20385,7 +20585,7 @@
         <v>2832.250683890003</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22761,7 +22961,7 @@
         <v>2949.698181520003</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22794,7 +22994,7 @@
         <v>2936.064281520004</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22827,7 +23027,7 @@
         <v>2919.573881520003</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22860,7 +23060,7 @@
         <v>2919.573881520003</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22893,7 +23093,7 @@
         <v>2919.573881520003</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24642,7 +24842,7 @@
         <v>2428.372381520004</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24675,7 +24875,7 @@
         <v>2529.647881520004</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24708,7 +24908,7 @@
         <v>2429.377281520004</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24741,7 +24941,7 @@
         <v>2543.100881520004</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24774,7 +24974,7 @@
         <v>2506.177881520004</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24807,7 +25007,7 @@
         <v>2463.420681520004</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24840,7 +25040,7 @@
         <v>2463.420681520004</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24873,7 +25073,7 @@
         <v>2360.539481520004</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24906,7 +25106,7 @@
         <v>2360.539481520004</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24939,7 +25139,7 @@
         <v>2374.720281520004</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24950,6 +25150,6 @@
       <c r="M730" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LTC.xlsx
+++ b/BackTest/2020-01-13 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1730.84944079</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>1730.84944079</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>57500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>1773.78884079</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>57500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>1799.60854079</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>57550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -605,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -827,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -864,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -901,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -938,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -975,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1049,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1086,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1345,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1382,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1456,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1493,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1567,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1604,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1641,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1678,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1752,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1789,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1826,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1863,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1900,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1974,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,16 +1837,14 @@
         <v>3135.0263668</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -2042,7 +1870,7 @@
         <v>3167.8054668</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2075,7 +1903,7 @@
         <v>3106.867366800001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2141,7 +1969,7 @@
         <v>3129.7401668</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2174,7 +2002,7 @@
         <v>3154.5440668</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2207,7 +2035,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2240,7 +2068,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2273,7 +2101,7 @@
         <v>2970.7511668</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2306,7 +2134,7 @@
         <v>2875.9263668</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2339,7 +2167,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2372,7 +2200,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2405,7 +2233,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2438,7 +2266,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2471,7 +2299,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2504,7 +2332,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2537,7 +2365,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2570,7 +2398,7 @@
         <v>2743.7250668</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2603,7 +2431,7 @@
         <v>2573.6834668</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2636,7 +2464,7 @@
         <v>2573.7170668</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2669,7 +2497,7 @@
         <v>2573.7170668</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2702,7 +2530,7 @@
         <v>2557.7956668</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2735,7 +2563,7 @@
         <v>2644.2578668</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2768,7 +2596,7 @@
         <v>2644.29261918</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2801,7 +2629,7 @@
         <v>2644.29261918</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2834,7 +2662,7 @@
         <v>2635.29261918</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2867,7 +2695,7 @@
         <v>2639.26181918</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2900,7 +2728,7 @@
         <v>2639.26181918</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2933,7 +2761,7 @@
         <v>2639.26181918</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2966,7 +2794,7 @@
         <v>2649.02481918</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2999,7 +2827,7 @@
         <v>2755.08261918</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3032,7 +2860,7 @@
         <v>2754.74191918</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3065,7 +2893,7 @@
         <v>2749.92501918</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3098,7 +2926,7 @@
         <v>2749.07351918</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3131,7 +2959,7 @@
         <v>2858.55351918</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3164,7 +2992,7 @@
         <v>2858.55351918</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3197,7 +3025,7 @@
         <v>2868.55351918</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3230,7 +3058,7 @@
         <v>2899.00371918</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3263,7 +3091,7 @@
         <v>2879.38871918</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3329,7 +3157,7 @@
         <v>2761.82791918</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3362,7 +3190,7 @@
         <v>2760.04281918</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3395,7 +3223,7 @@
         <v>2794.7650414</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3428,7 +3256,7 @@
         <v>2898.84462836</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3461,7 +3289,7 @@
         <v>2846.37362836</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3494,7 +3322,7 @@
         <v>2938.29872836</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3527,7 +3355,7 @@
         <v>2994.18252836</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3560,7 +3388,7 @@
         <v>3039.04012836</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3593,7 +3421,7 @@
         <v>3039.04012836</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3626,7 +3454,7 @@
         <v>2918.00522836</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3659,7 +3487,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3692,7 +3520,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3725,7 +3553,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3758,7 +3586,7 @@
         <v>2909.890128359999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3791,7 +3619,7 @@
         <v>2939.890128359999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3824,7 +3652,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3857,7 +3685,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3890,7 +3718,7 @@
         <v>2936.733228359999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3923,7 +3751,7 @@
         <v>2874.232928359999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3956,7 +3784,7 @@
         <v>2863.232928359999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3989,7 +3817,7 @@
         <v>2863.792528359999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4022,7 +3850,7 @@
         <v>2846.042128359999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4055,7 +3883,7 @@
         <v>2850.542128359999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4088,7 +3916,7 @@
         <v>2856.542128359999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4121,7 +3949,7 @@
         <v>2856.542128359999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4154,7 +3982,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4187,7 +4015,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4220,7 +4048,7 @@
         <v>2974.448328359999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4253,7 +4081,7 @@
         <v>2974.448328359999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4286,7 +4114,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4319,7 +4147,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4352,7 +4180,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4385,7 +4213,7 @@
         <v>2969.24992836</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4418,7 +4246,7 @@
         <v>2969.24992836</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4451,7 +4279,7 @@
         <v>3039.965428359999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4484,7 +4312,7 @@
         <v>3041.768728359999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4517,7 +4345,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4550,7 +4378,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4583,7 +4411,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4616,7 +4444,7 @@
         <v>3039.028828359999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4649,7 +4477,7 @@
         <v>3034.528828359999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4682,7 +4510,7 @@
         <v>3032.052928359999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4715,7 +4543,7 @@
         <v>3032.588928359999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4748,7 +4576,7 @@
         <v>3009.54262836</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4781,7 +4609,7 @@
         <v>2879.724428359999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4814,7 +4642,7 @@
         <v>2874.716728359999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4847,7 +4675,7 @@
         <v>2885.194328359999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4880,7 +4708,7 @@
         <v>2918.458028359999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4913,7 +4741,7 @@
         <v>2892.253428359999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4946,7 +4774,7 @@
         <v>2992.527828359999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4979,7 +4807,7 @@
         <v>2992.460828359999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5012,7 +4840,7 @@
         <v>2992.460828359999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5045,7 +4873,7 @@
         <v>2981.210828359999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5078,7 +4906,7 @@
         <v>2981.210828359999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5111,7 +4939,7 @@
         <v>2972.210828359999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5408,7 +5236,7 @@
         <v>3129.969028359999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -8279,11 +8107,17 @@
         <v>1848.98159998</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>55500</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8312,11 +8146,17 @@
         <v>1848.98159998</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>55450</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8353,7 +8193,7 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
@@ -8696,11 +8536,9 @@
         <v>2194.41529998</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>55750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8735,11 +8573,9 @@
         <v>2194.41529998</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>55900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8774,11 +8610,9 @@
         <v>2194.41529998</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>55900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8813,11 +8647,9 @@
         <v>2206.83489998</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>55900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9888,18 +9720,16 @@
         <v>5372.72058808</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
@@ -9925,15 +9755,11 @@
         <v>5374.57998808</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9962,15 +9788,11 @@
         <v>5222.824788080001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9999,15 +9821,11 @@
         <v>4937.051588080001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10036,15 +9854,11 @@
         <v>4937.244788080001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10073,15 +9887,11 @@
         <v>4936.592988080001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10110,15 +9920,11 @@
         <v>4925.693688080001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10147,15 +9953,11 @@
         <v>4293.778188080001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10184,15 +9986,11 @@
         <v>4302.778188080001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10221,15 +10019,11 @@
         <v>4202.175888080002</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10258,15 +10052,11 @@
         <v>4217.362188080002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10295,15 +10085,11 @@
         <v>4216.836988080002</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10332,15 +10118,11 @@
         <v>4222.146388080002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10369,15 +10151,11 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10406,15 +10184,11 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10443,15 +10217,11 @@
         <v>4226.464288080002</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10480,15 +10250,11 @@
         <v>4208.519188080002</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10517,15 +10283,11 @@
         <v>4210.128488080002</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10558,11 +10320,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10595,11 +10353,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10632,11 +10386,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10669,11 +10419,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10706,11 +10452,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10743,11 +10485,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10518,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10817,11 +10551,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10854,11 +10584,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10891,11 +10617,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10928,11 +10650,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10965,11 +10683,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11002,11 +10716,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11039,11 +10749,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11076,11 +10782,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11113,11 +10815,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11150,11 +10848,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11187,11 +10881,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11224,11 +10914,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11261,11 +10947,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11298,11 +10980,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11335,11 +11013,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11372,11 +11046,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11409,11 +11079,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11446,11 +11112,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11483,11 +11145,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11520,11 +11178,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11557,11 +11211,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11594,11 +11244,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11631,11 +11277,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11668,11 +11310,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11705,11 +11343,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11742,11 +11376,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11779,11 +11409,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11816,11 +11442,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11853,11 +11475,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11890,11 +11508,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11927,11 +11541,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11964,11 +11574,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +11607,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12038,11 +11640,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12075,11 +11673,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12112,11 +11706,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12149,11 +11739,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12186,11 +11772,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12223,11 +11805,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12260,11 +11838,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12297,11 +11871,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12334,11 +11904,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12371,11 +11937,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12408,11 +11970,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12445,11 +12003,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12482,11 +12036,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12519,11 +12069,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12556,11 +12102,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12593,11 +12135,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12630,11 +12168,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12663,16 +12197,14 @@
         <v>4454.378530820004</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
       <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
@@ -12731,7 +12263,7 @@
         <v>4445.067222530004</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12797,7 +12329,7 @@
         <v>4293.869822530004</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12830,7 +12362,7 @@
         <v>4309.728922530004</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12863,7 +12395,7 @@
         <v>4309.728922530004</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12896,7 +12428,7 @@
         <v>4264.227622530004</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12929,7 +12461,7 @@
         <v>4279.977622530004</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12962,7 +12494,7 @@
         <v>4404.979322530004</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12995,7 +12527,7 @@
         <v>4428.659322530004</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13028,7 +12560,7 @@
         <v>4449.285222530004</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13061,7 +12593,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13094,7 +12626,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13127,7 +12659,7 @@
         <v>4073.341322530004</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13160,7 +12692,7 @@
         <v>4080.876318200004</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13193,7 +12725,7 @@
         <v>4073.898918200004</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13259,7 +12791,7 @@
         <v>3990.023018200004</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13292,7 +12824,7 @@
         <v>3941.043018200004</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13325,7 +12857,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13358,7 +12890,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13391,7 +12923,7 @@
         <v>3941.752918200004</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13424,7 +12956,7 @@
         <v>3941.843818200004</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13457,7 +12989,7 @@
         <v>3864.170218200004</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13490,7 +13022,7 @@
         <v>3843.401518200004</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13523,7 +13055,7 @@
         <v>3876.070518200004</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13556,7 +13088,7 @@
         <v>3851.871618200004</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13589,7 +13121,7 @@
         <v>3895.893318200004</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13622,7 +13154,7 @@
         <v>3895.712903350004</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13655,7 +13187,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13688,7 +13220,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13721,7 +13253,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13754,7 +13286,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13787,7 +13319,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13820,7 +13352,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13853,7 +13385,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13886,7 +13418,7 @@
         <v>3812.155603350004</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13919,7 +13451,7 @@
         <v>3827.905603350004</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13952,7 +13484,7 @@
         <v>3821.572103350004</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13985,7 +13517,7 @@
         <v>3822.293103350004</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14018,7 +13550,7 @@
         <v>3843.297603350004</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14051,7 +13583,7 @@
         <v>3803.967703350003</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14084,7 +13616,7 @@
         <v>3797.645403350004</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14117,7 +13649,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14150,7 +13682,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14183,7 +13715,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14216,7 +13748,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14249,7 +13781,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14282,7 +13814,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14315,7 +13847,7 @@
         <v>3769.839703350004</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14348,7 +13880,7 @@
         <v>3794.864603350004</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14381,7 +13913,7 @@
         <v>3794.864603350004</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14414,7 +13946,7 @@
         <v>3794.964603350003</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14447,7 +13979,7 @@
         <v>3787.227603350003</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14480,7 +14012,7 @@
         <v>3777.758603350003</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14513,7 +14045,7 @@
         <v>3773.445603350003</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14546,7 +14078,7 @@
         <v>3773.470803350003</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14579,7 +14111,7 @@
         <v>3771.616203350003</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14612,7 +14144,7 @@
         <v>3781.085203350003</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14645,7 +14177,7 @@
         <v>3779.601903350003</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14678,7 +14210,7 @@
         <v>3780.564903350004</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14711,7 +14243,7 @@
         <v>3755.256303350004</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14744,7 +14276,7 @@
         <v>3800.131303350004</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14777,7 +14309,7 @@
         <v>3859.342203350004</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14810,7 +14342,7 @@
         <v>3853.154203350004</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14843,7 +14375,7 @@
         <v>3853.311203350004</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14876,7 +14408,7 @@
         <v>3794.867303350004</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14909,7 +14441,7 @@
         <v>3810.935303350004</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14942,7 +14474,7 @@
         <v>3812.479103350004</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14975,7 +14507,7 @@
         <v>3818.412303350004</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15008,7 +14540,7 @@
         <v>3818.412303350004</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15041,7 +14573,7 @@
         <v>3819.245603350003</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15074,7 +14606,7 @@
         <v>3827.469903350003</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15107,7 +14639,7 @@
         <v>3825.736803350003</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15140,7 +14672,7 @@
         <v>3829.937103350003</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15173,7 +14705,7 @@
         <v>3829.937103350003</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15206,7 +14738,7 @@
         <v>3829.919651350003</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15239,7 +14771,7 @@
         <v>3770.630551350003</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15272,7 +14804,7 @@
         <v>3775.153451350003</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15305,7 +14837,7 @@
         <v>3798.078851350003</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15338,7 +14870,7 @@
         <v>3798.078851350003</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15371,7 +14903,7 @@
         <v>3766.068951350003</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15404,7 +14936,7 @@
         <v>3788.472051350003</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15437,7 +14969,7 @@
         <v>3788.454568840004</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15470,7 +15002,7 @@
         <v>3780.050568840004</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15503,7 +15035,7 @@
         <v>3815.484468840004</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15536,7 +15068,7 @@
         <v>3810.104868840003</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15569,7 +15101,7 @@
         <v>3803.681968840003</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15602,7 +15134,7 @@
         <v>3952.374468840003</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15635,7 +15167,7 @@
         <v>3952.374468840003</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15668,7 +15200,7 @@
         <v>3962.374468840003</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15701,7 +15233,7 @@
         <v>3953.374468840003</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15734,7 +15266,7 @@
         <v>3953.474468840003</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15767,7 +15299,7 @@
         <v>3946.755568840003</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15800,7 +15332,7 @@
         <v>3827.212868840003</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15833,7 +15365,7 @@
         <v>3827.212868840003</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15866,7 +15398,7 @@
         <v>3827.212868840003</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15899,7 +15431,7 @@
         <v>3753.850368840003</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15932,7 +15464,7 @@
         <v>3739.391868840003</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15965,7 +15497,7 @@
         <v>3744.091868840003</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15998,7 +15530,7 @@
         <v>3744.016768840003</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16031,7 +15563,7 @@
         <v>3754.016768840003</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16064,7 +15596,7 @@
         <v>3754.016768840003</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16625,7 +16157,7 @@
         <v>3686.526475070003</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16658,7 +16190,7 @@
         <v>3533.283275070004</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16691,7 +16223,7 @@
         <v>3550.594175070004</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16724,7 +16256,7 @@
         <v>3560.970275070003</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16757,7 +16289,7 @@
         <v>3492.599366690004</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16790,7 +16322,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16823,7 +16355,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16856,7 +16388,7 @@
         <v>3358.653661250004</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16889,7 +16421,7 @@
         <v>3357.818661250004</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16922,7 +16454,7 @@
         <v>3336.662261250004</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16955,7 +16487,7 @@
         <v>3336.673961250004</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16988,7 +16520,7 @@
         <v>3335.673961250004</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17021,7 +16553,7 @@
         <v>3344.024461250004</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17054,7 +16586,7 @@
         <v>3533.647361250004</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17087,7 +16619,7 @@
         <v>3533.390661250004</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17120,7 +16652,7 @@
         <v>3529.390661250004</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17153,7 +16685,7 @@
         <v>3529.390661250004</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17186,7 +16718,7 @@
         <v>3529.390661250004</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17219,7 +16751,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17252,7 +16784,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17285,7 +16817,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17318,7 +16850,7 @@
         <v>3534.006161250004</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17351,7 +16883,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17384,7 +16916,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17417,7 +16949,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17450,7 +16982,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17483,7 +17015,7 @@
         <v>3430.105361250003</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17516,7 +17048,7 @@
         <v>3565.453461250003</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17549,7 +17081,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17582,7 +17114,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17615,7 +17147,7 @@
         <v>3690.139461250003</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17648,7 +17180,7 @@
         <v>3637.574561250003</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17747,7 +17279,7 @@
         <v>3555.693761250003</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17780,7 +17312,7 @@
         <v>3555.693761250003</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17813,7 +17345,7 @@
         <v>3570.193761250003</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17846,7 +17378,7 @@
         <v>3570.193761250003</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17879,7 +17411,7 @@
         <v>3570.193761250003</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17912,7 +17444,7 @@
         <v>3633.084561250003</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17945,7 +17477,7 @@
         <v>3633.084561250003</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17978,7 +17510,7 @@
         <v>3629.284961250004</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18011,7 +17543,7 @@
         <v>3646.592161250004</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18044,7 +17576,7 @@
         <v>3645.407061250004</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18077,7 +17609,7 @@
         <v>3581.878861250003</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18110,7 +17642,7 @@
         <v>3544.906861250003</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18143,7 +17675,7 @@
         <v>3563.499361250003</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18176,7 +17708,7 @@
         <v>3563.499361250003</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18209,7 +17741,7 @@
         <v>3563.499361250003</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18242,7 +17774,7 @@
         <v>3488.762761250003</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18275,7 +17807,7 @@
         <v>3583.509161250003</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18308,7 +17840,7 @@
         <v>3605.357261250003</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18341,7 +17873,7 @@
         <v>3607.589861250003</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18374,7 +17906,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18407,7 +17939,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18440,7 +17972,7 @@
         <v>3600.172661250003</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18473,7 +18005,7 @@
         <v>3659.972661250004</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18506,7 +18038,7 @@
         <v>3754.905961250004</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18539,7 +18071,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18572,7 +18104,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18605,7 +18137,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18638,7 +18170,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18671,7 +18203,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18704,7 +18236,7 @@
         <v>3783.731961250004</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18737,7 +18269,7 @@
         <v>3771.399461250004</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18770,7 +18302,7 @@
         <v>3871.750961250004</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18803,7 +18335,7 @@
         <v>3771.750961250004</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18836,7 +18368,7 @@
         <v>3730.462461250004</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18869,7 +18401,7 @@
         <v>3734.318961250004</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18902,7 +18434,7 @@
         <v>3755.554361250004</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18935,7 +18467,7 @@
         <v>3752.457161250004</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18968,7 +18500,7 @@
         <v>3743.665661250004</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19001,7 +18533,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19034,7 +18566,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19067,7 +18599,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19100,7 +18632,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19133,7 +18665,7 @@
         <v>3723.486661250004</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19166,7 +18698,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19199,7 +18731,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19232,7 +18764,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19265,7 +18797,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19298,7 +18830,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19331,7 +18863,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19364,7 +18896,7 @@
         <v>3599.473261250004</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19397,7 +18929,7 @@
         <v>3593.184761250004</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19430,7 +18962,7 @@
         <v>3644.730861250004</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19463,7 +18995,7 @@
         <v>3644.739861250004</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19496,7 +19028,7 @@
         <v>3604.241461250004</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19529,7 +19061,7 @@
         <v>3572.717761250004</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19562,7 +19094,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19595,7 +19127,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19628,7 +19160,7 @@
         <v>3569.791061250004</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19661,7 +19193,7 @@
         <v>3351.826761250004</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19694,7 +19226,7 @@
         <v>3361.835661250003</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19727,7 +19259,7 @@
         <v>3361.835661250003</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19760,7 +19292,7 @@
         <v>3360.259761250004</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19793,7 +19325,7 @@
         <v>3255.508961250004</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19826,7 +19358,7 @@
         <v>3254.919261250004</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19859,7 +19391,7 @@
         <v>3376.791561250004</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19892,7 +19424,7 @@
         <v>3376.391561250004</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19925,7 +19457,7 @@
         <v>3407.223161250004</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19958,7 +19490,7 @@
         <v>3407.273683890004</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19991,7 +19523,7 @@
         <v>3407.760983890003</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20024,7 +19556,7 @@
         <v>3407.745283890004</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20057,7 +19589,7 @@
         <v>3407.670283890004</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20090,7 +19622,7 @@
         <v>3407.670283890004</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20123,7 +19655,7 @@
         <v>3406.670283890004</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20156,7 +19688,7 @@
         <v>3406.670283890004</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20189,7 +19721,7 @@
         <v>3375.974783890004</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20222,7 +19754,7 @@
         <v>3324.782683890004</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20255,7 +19787,7 @@
         <v>3324.782683890004</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20288,7 +19820,7 @@
         <v>3227.101483890004</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20321,7 +19853,7 @@
         <v>3252.503183890004</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20354,7 +19886,7 @@
         <v>3250.436083890003</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20387,7 +19919,7 @@
         <v>2991.419683890003</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20420,7 +19952,7 @@
         <v>3024.861683890003</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20453,7 +19985,7 @@
         <v>3024.861683890003</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20486,7 +20018,7 @@
         <v>2957.457283890004</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20519,7 +20051,7 @@
         <v>2947.488883890003</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20552,7 +20084,7 @@
         <v>2947.694083890003</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20585,7 +20117,7 @@
         <v>2832.250683890003</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -25150,6 +24682,6 @@
       <c r="M730" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LTC.xlsx
+++ b/BackTest/2020-01-13 BackTest LTC.xlsx
@@ -682,10 +682,14 @@
         <v>1690.25131567</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>57450</v>
+      </c>
+      <c r="J9" t="n">
+        <v>57450</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +719,19 @@
         <v>1656.37201567</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>57500</v>
+      </c>
+      <c r="J10" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +760,19 @@
         <v>1548.01051567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>57450</v>
+      </c>
+      <c r="J11" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +801,19 @@
         <v>1565.23491567</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>57200</v>
+      </c>
+      <c r="J12" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +842,19 @@
         <v>1567.54841567</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>57300</v>
+      </c>
+      <c r="J13" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +883,19 @@
         <v>1686.94381567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>57450</v>
+      </c>
+      <c r="J14" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +924,19 @@
         <v>1623.01051567</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>57550</v>
+      </c>
+      <c r="J15" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +968,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1007,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1046,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1085,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1124,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1163,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1202,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1241,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1280,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1319,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1358,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1397,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1436,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1475,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1514,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1553,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,13 +1589,19 @@
         <v>2398.17158958</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>1.005443864229765</v>
       </c>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -1474,7 +1628,7 @@
         <v>2551.11578958</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1661,7 @@
         <v>2589.53548958</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1694,7 @@
         <v>2679.45158383</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1727,7 @@
         <v>2674.95158383</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1760,7 @@
         <v>2740.46508383</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1793,7 @@
         <v>2774.64788383</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1826,7 @@
         <v>2748.5566668</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1859,7 @@
         <v>2746.1008668</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1892,7 @@
         <v>2743.0413668</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1969,7 +2123,7 @@
         <v>3129.7401668</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2156,7 @@
         <v>3154.5440668</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2189,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2222,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2255,7 @@
         <v>2970.7511668</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2288,7 @@
         <v>2875.9263668</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2321,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2354,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2387,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2420,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2453,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2486,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2519,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2552,7 @@
         <v>2743.7250668</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3124,7 +3278,7 @@
         <v>2761.86951918</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3553,7 +3707,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3740,7 @@
         <v>2909.890128359999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3806,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3839,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3872,7 @@
         <v>2936.733228359999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3905,7 @@
         <v>2874.232928359999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3938,7 @@
         <v>2863.232928359999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +4004,7 @@
         <v>2846.042128359999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3982,7 +4136,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4169,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4202,7 @@
         <v>2974.448328359999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4268,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4345,7 +4499,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4532,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4565,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4598,7 @@
         <v>3039.028828359999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -8107,17 +8261,11 @@
         <v>1848.98159998</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>55500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +8294,11 @@
         <v>1848.98159998</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>55450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8185,17 +8327,11 @@
         <v>1848.98159998</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>55450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8224,17 +8360,11 @@
         <v>1836.03949998</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>55450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +8401,7 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8536,9 +8666,11 @@
         <v>2194.41529998</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>55750</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8573,9 +8705,11 @@
         <v>2194.41529998</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>55900</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8610,9 +8744,11 @@
         <v>2194.41529998</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>55900</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8647,9 +8783,11 @@
         <v>2206.83489998</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>55900</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8684,9 +8822,11 @@
         <v>2196.12879998</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>56000</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8721,9 +8861,11 @@
         <v>2202.47459998</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>55900</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8758,9 +8900,11 @@
         <v>2202.47459998</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>56000</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8795,9 +8939,11 @@
         <v>3818.39509908</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>56000</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9720,16 +9866,18 @@
         <v>5372.72058808</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
       <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
@@ -9755,11 +9903,15 @@
         <v>5374.57998808</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9788,11 +9940,15 @@
         <v>5222.824788080001</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9821,11 +9977,15 @@
         <v>4937.051588080001</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9854,11 +10014,15 @@
         <v>4937.244788080001</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9887,11 +10051,15 @@
         <v>4936.592988080001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +10088,15 @@
         <v>4925.693688080001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9953,11 +10125,15 @@
         <v>4293.778188080001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9986,11 +10162,15 @@
         <v>4302.778188080001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +10199,15 @@
         <v>4202.175888080002</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +10236,15 @@
         <v>4217.362188080002</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +10273,15 @@
         <v>4216.836988080002</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +10310,15 @@
         <v>4222.146388080002</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10151,11 +10347,15 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10184,11 +10384,15 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10217,11 +10421,15 @@
         <v>4226.464288080002</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +10458,15 @@
         <v>4208.519188080002</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10283,11 +10495,15 @@
         <v>4210.128488080002</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10320,7 +10536,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10353,7 +10573,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10386,7 +10610,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10419,7 +10647,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10452,7 +10684,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10485,7 +10721,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10518,7 +10758,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10551,7 +10795,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10584,7 +10832,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10617,7 +10869,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10650,7 +10906,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10683,7 +10943,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10716,7 +10980,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10749,7 +11017,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10782,7 +11054,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10815,7 +11091,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10848,7 +11128,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10881,7 +11165,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10914,7 +11202,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10947,7 +11239,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10980,7 +11276,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11013,7 +11313,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11046,7 +11350,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11079,7 +11387,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11112,7 +11424,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11145,7 +11461,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11178,7 +11498,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11211,7 +11535,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11244,7 +11572,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11277,7 +11609,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11310,7 +11646,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +11683,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11376,7 +11720,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11409,7 +11757,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11442,7 +11794,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11475,7 +11831,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11508,7 +11868,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11541,7 +11905,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11574,7 +11942,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11607,7 +11979,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11640,7 +12016,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11673,7 +12053,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11706,7 +12090,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11739,7 +12127,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11772,7 +12164,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11805,7 +12201,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11838,7 +12238,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11871,7 +12275,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +12312,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11937,7 +12349,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11970,7 +12386,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12003,7 +12423,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12036,7 +12460,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12069,7 +12497,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +12534,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12135,7 +12571,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12168,7 +12608,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12201,7 +12645,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12234,7 +12682,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12267,7 +12719,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12300,7 +12756,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12333,7 +12793,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12366,7 +12830,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12399,7 +12867,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12432,7 +12904,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12465,7 +12941,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12498,7 +12978,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12531,7 +13015,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12560,14 +13048,16 @@
         <v>4449.285222530004</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
@@ -12593,7 +13083,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12626,7 +13116,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12659,7 +13149,7 @@
         <v>4073.341322530004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12692,7 +13182,7 @@
         <v>4080.876318200004</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12725,7 +13215,7 @@
         <v>4073.898918200004</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12758,7 +13248,7 @@
         <v>3990.193018200004</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12791,7 +13281,7 @@
         <v>3990.023018200004</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12824,7 +13314,7 @@
         <v>3941.043018200004</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12857,7 +13347,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12890,7 +13380,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12923,7 +13413,7 @@
         <v>3941.752918200004</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12956,7 +13446,7 @@
         <v>3941.843818200004</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12989,7 +13479,7 @@
         <v>3864.170218200004</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13022,7 +13512,7 @@
         <v>3843.401518200004</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13253,7 +13743,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13286,7 +13776,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13319,7 +13809,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13352,7 +13842,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13385,7 +13875,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13418,7 +13908,7 @@
         <v>3812.155603350004</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13484,7 +13974,7 @@
         <v>3821.572103350004</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13517,7 +14007,7 @@
         <v>3822.293103350004</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13550,7 +14040,7 @@
         <v>3843.297603350004</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13583,7 +14073,7 @@
         <v>3803.967703350003</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13616,7 +14106,7 @@
         <v>3797.645403350004</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13649,7 +14139,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13682,7 +14172,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13748,7 +14238,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13781,7 +14271,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13814,7 +14304,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13847,7 +14337,7 @@
         <v>3769.839703350004</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13880,7 +14370,7 @@
         <v>3794.864603350004</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16058,7 +16548,7 @@
         <v>3678.295368840003</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16091,7 +16581,7 @@
         <v>3715.060568840003</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16124,7 +16614,7 @@
         <v>3715.060568840003</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16157,7 +16647,7 @@
         <v>3686.526475070003</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16190,7 +16680,7 @@
         <v>3533.283275070004</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16223,7 +16713,7 @@
         <v>3550.594175070004</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16256,7 +16746,7 @@
         <v>3560.970275070003</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16289,7 +16779,7 @@
         <v>3492.599366690004</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16322,7 +16812,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16355,7 +16845,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16388,7 +16878,7 @@
         <v>3358.653661250004</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16421,7 +16911,7 @@
         <v>3357.818661250004</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16454,7 +16944,7 @@
         <v>3336.662261250004</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16817,7 +17307,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16850,7 +17340,7 @@
         <v>3534.006161250004</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16883,7 +17373,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16916,7 +17406,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16949,7 +17439,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16982,7 +17472,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17015,7 +17505,7 @@
         <v>3430.105361250003</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17048,7 +17538,7 @@
         <v>3565.453461250003</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17081,7 +17571,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17114,7 +17604,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17147,7 +17637,7 @@
         <v>3690.139461250003</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17180,7 +17670,7 @@
         <v>3637.574561250003</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17213,7 +17703,7 @@
         <v>3570.901761250003</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17246,7 +17736,7 @@
         <v>3555.693761250003</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17510,7 +18000,7 @@
         <v>3629.284961250004</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17873,7 +18363,7 @@
         <v>3607.589861250003</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17906,7 +18396,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17939,7 +18429,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18038,7 +18528,7 @@
         <v>3754.905961250004</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18071,7 +18561,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18104,7 +18594,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18137,7 +18627,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18170,7 +18660,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18203,7 +18693,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18236,7 +18726,7 @@
         <v>3783.731961250004</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18269,7 +18759,7 @@
         <v>3771.399461250004</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18302,7 +18792,7 @@
         <v>3871.750961250004</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18335,7 +18825,7 @@
         <v>3771.750961250004</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18368,7 +18858,7 @@
         <v>3730.462461250004</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18401,7 +18891,7 @@
         <v>3734.318961250004</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18434,7 +18924,7 @@
         <v>3755.554361250004</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18467,7 +18957,7 @@
         <v>3752.457161250004</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18500,7 +18990,7 @@
         <v>3743.665661250004</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18533,7 +19023,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18566,7 +19056,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18599,7 +19089,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18632,7 +19122,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18665,7 +19155,7 @@
         <v>3723.486661250004</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18698,7 +19188,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18731,7 +19221,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18764,7 +19254,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18797,7 +19287,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18830,7 +19320,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18863,7 +19353,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18896,7 +19386,7 @@
         <v>3599.473261250004</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18929,7 +19419,7 @@
         <v>3593.184761250004</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18962,7 +19452,7 @@
         <v>3644.730861250004</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18995,7 +19485,7 @@
         <v>3644.739861250004</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19028,7 +19518,7 @@
         <v>3604.241461250004</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19061,7 +19551,7 @@
         <v>3572.717761250004</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19094,7 +19584,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19127,7 +19617,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19160,7 +19650,7 @@
         <v>3569.791061250004</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19193,7 +19683,7 @@
         <v>3351.826761250004</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
